--- a/技术点笔记附件/day02课堂笔记copy.xlsx
+++ b/技术点笔记附件/day02课堂笔记copy.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="17595" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="17595" windowHeight="7440" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JS控制table数据过长" sheetId="1" r:id="rId1"/>
     <sheet name="JS控制文本域输入字符串的大小" sheetId="2" r:id="rId2"/>
     <sheet name="大数据进行“截串存取”思想" sheetId="3" r:id="rId3"/>
+    <sheet name="JS进度条" sheetId="4" r:id="rId4"/>
+    <sheet name="JS浮动框" sheetId="5" r:id="rId5"/>
+    <sheet name="JSHighslider特效" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>使用：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,6 +82,42 @@
   <si>
     <t>第二步</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯JS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启2个线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果i=15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session存放10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Session存放10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openViev.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highslide.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highslide-html.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -114,12 +153,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,11 +181,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1672,6 +1718,3493 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1752600" y="228600"/>
+          <a:ext cx="6076950" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2124075" y="3457575"/>
+          <a:ext cx="7572375" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2657475" y="3571875"/>
+          <a:ext cx="6429375" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3076575" y="5124450"/>
+          <a:ext cx="6848475" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2000250" y="13620750"/>
+          <a:ext cx="6848475" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4257675" y="13906500"/>
+          <a:ext cx="2219325" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>10%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1447800" y="16249650"/>
+          <a:ext cx="8743950" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1466850" y="18154650"/>
+          <a:ext cx="8763000" cy="4591050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1362075" y="22821900"/>
+          <a:ext cx="8724900" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Line 11"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1533525" y="22945725"/>
+          <a:ext cx="1800225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1809750" y="27670125"/>
+          <a:ext cx="7191375" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="6353176"/>
+          <a:ext cx="6496050" cy="5276850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/**</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>添加不带百分比的进度条*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  var len = 500 ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var add = 0 ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function openContenFrame(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var td1 = document.getElementById('tdOne') ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var td2 = document.getElementById('tdTwo') ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    add = add+10 ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    td1.width = add ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if(len - add &lt;= 0){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       td2.width = 1 ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       td2.width = len - add ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if(add&lt;=len) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       td1.width = 1 ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       td2.width = 500 ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       add = 0 ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    setTimeout('openContenFrame()',100) ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>loading</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    document.getElementById("load").style.display="";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    document.getElementById("opperate1").style.display="none";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    document.getElementById("opperate2").style.display="none";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    openContenFrame();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>别忘了在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>submit()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>之后 添加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>loading()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886575" y="6400800"/>
+          <a:ext cx="6648450" cy="4962525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;table id=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"load" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>width="700" border="0" align="center" bgcolor="#FAFAFA" cellpadding="0" cellspacing="0" bordercolor="#000000" style="border-collapse:collapse;display:none "&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;td&gt;&lt;br&gt;&lt;br&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;table </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>width=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"100%" border="1" cellspacing="0" cellpadding="0" bordercolor="#287BCE" style="border-collapse:collapse "&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;tr </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bgcolor=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"#F7F7F6"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          &lt;td </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>width=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"20%" height="100" valign="middle"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;table </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>align=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'center' width='500'&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       &lt;td colspan=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'2' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>align='center' id="progressPersent"&gt;&lt;font size="2"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        正在进行保存，用时较长，请稍后</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;/font&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       &lt;/td&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;/tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;td id=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'tdOne</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>height='25' width=1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bgcolor="blue"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&amp;nbsp;&lt;/td&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;td id=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'tdTwo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>height='25' width=500 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bgColor='#999999'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&amp;nbsp;&lt;/td&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      &lt;/tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/table&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          &lt;/td&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        &lt;/tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/table&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;/td&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;/tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/table&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="323850" y="457200"/>
+          <a:ext cx="2971800" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="523875"/>
+          <a:ext cx="11639550" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;!-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>浮动窗口样式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>css begin --&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;style type="text/css"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	#msg_win{border:1px solid #A67901;background:#EAEAEA;width:240px;position:absolute;right:0;font-size:12px;font-family:Arial;margin:0px;display:none;overflow:hidden;z-index:99;}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	#msg_win .icos{position:absolute;top:2px;*top:0px;right:2px;z-index:9;}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	.icos a{float:left;color:#833B02;margin:1px;text-align:center;font-weight:bold;width:14px;height:22px;line-height:22px;padding:1px;text-decoration:none;font-family:webdings;}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	.icos a:hover{color:#fff;}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	#msg_title{background:#BBDEF6;border-bottom:1px solid #A67901;border-top:1px solid #FFF;border-left:1px solid #FFF;color:#000;height:25px;line-height:25px;text-indent:5px;}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	#msg_content{margin:5px;margin-right:0;width:230px;height:126px;overflow:hidden;}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/style&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;!-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>浮动窗口样式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>css end --&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3152775"/>
+          <a:ext cx="7239000" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;!-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>浮动窗口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，必须要放置到最后  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>begin--&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;script language="javascript"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>var Message={</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	set: function() {//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>最小化与恢复状态切换</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>var set=this.minbtn.status == 1?[0,1,'block',this.char[0],'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>最小化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>']:[1,0,'none',this.char[1],'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>展开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>'];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.minbtn.status=set[0];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.win.style.borderBottomWidth=set[1];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.content.style.display =set[2];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.minbtn.innerHTML =set[3]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.minbtn.title = set[4];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.win.style.top = this.getY().top;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	close: function() {//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关闭</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>this.win.style.display = 'none';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		window.onscroll = null;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	setOpacity: function(x) {//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>设置透明度</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>var v = x &gt;= 100 ? '': 'Alpha(opacity=' + x + ')';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.win.style.visibility = x&lt;=0?'hidden':'visible';//IE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有绝对或相对定位内容不随父透明度变化的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>bug</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.win.style.filter = v;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.win.style.opacity = x / 100;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	show: function() {//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>渐显</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>clearInterval(this.timer2);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		var me = this,fx = this.fx(0, 100, 0.1),t = 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.timer2 = setInterval(function() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			t = fx();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			me.setOpacity(t[0]);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			if (t[1] == 0) {clearInterval(me.timer2) }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		},10);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	fx: function(a, b, c) {//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>缓冲计算</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>var cMath = Math[(a - b) &gt; 0 ? "floor": "ceil"],c = c || 0.1;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return function() {return [a += cMath((b - a) * c), a - b]}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	getY: function() {//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计算移动坐标</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>var d = document,b = document.body, e = document.documentElement;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		var s = Math.max(b.scrollTop, e.scrollTop);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		var h = /BackCompat/i.test(document.compatMode)?b.clientHeight:e.clientHeight;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		var h2 = this.win.offsetHeight;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return {foot: s + h + h2 + 2+'px',top: s + h - h2 - 2+'px'}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	moveTo: function(y) {//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>移动动画</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>clearInterval(this.timer);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		var me = this,a = parseInt(this.win.style.top)||0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		var fx = this.fx(a, parseInt(y));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		var t = 0 ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.timer = setInterval(function() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			t = fx();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			me.win.style.top = t[0]+'px';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			if (t[1] == 0) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				clearInterval(me.timer);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				me.bind();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		},10);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	bind:function (){//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>绑定窗口滚动条与大小变化事件</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>var me=this,st,rt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		window.onscroll = function() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			clearTimeout(st);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			clearTimeout(me.timer2);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			me.setOpacity(0);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			st = setTimeout(function() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			me.win.style.top = me.getY().top;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			me.show();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			},600);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		window.onresize = function (){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			clearTimeout(rt);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			rt = setTimeout(function() {me.win.style.top = me.getY().top},100);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	init: function() {//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>HTML</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		function $(id) {return document.getElementById(id)};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.win=$('msg_win');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		var set={minbtn: 'msg_min',closebtn: 'msg_close',title: 'msg_title',content: 'msg_content'};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		for (var Id in set) {this[Id] = $(set[Id])};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		var me = this;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.minbtn.onclick = function() {me.set();this.blur()};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.closebtn.onclick = function() {me.close()};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.char=navigator.userAgent.toLowerCase().indexOf('firefox')+1?['_','::','×']:['0','2','r'];//FF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>不支持</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>webdings</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>字体</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>this.minbtn.innerHTML=this.char[0];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		this.closebtn.innerHTML=this.char[2];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		setTimeout(function() {//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>初始化最先位置</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>me.win.style.display = 'block';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			me.win.style.top = me.getY().foot;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			me.moveTo(me.getY().top);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		},0);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return this;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Message.init();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/script&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;!-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>浮动窗口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>js end--&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="6362700"/>
+          <a:ext cx="7239000" cy="3267075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;!-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>浮动窗口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>代码 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>begin --&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	&lt;hr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	&lt;div id="msg_win" style="display:block;top:490px;visibility:visible;opacity:1;"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		&lt;div class="icos"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			&lt;a id="msg_min" title="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>最小化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>" href="javascript:void 0"&gt;_&lt;/a&gt;&lt;a id="msg_close" title="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关闭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>" href="javascript:void 0"&gt;×</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			&lt;/a&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		&lt;div id="msg_title"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>设备运行情况</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>--&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		&lt;div id="msg_content" style="overflow:auto;height:150px;width:100%;white-space:nowrap"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			&lt;s:property value="devRun" escape="false"/&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	&lt;!-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>浮动窗口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>代码 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>end --&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="800100" y="238125"/>
+          <a:ext cx="5753100" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589962</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="5314950"/>
+          <a:ext cx="4704762" cy="2600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>580439</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="7896225"/>
+          <a:ext cx="4685714" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542354</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="11125200"/>
+          <a:ext cx="4571429" cy="857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542356</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6276975" y="11934825"/>
+          <a:ext cx="4552381" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551881</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>85407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="12287250"/>
+          <a:ext cx="4552381" cy="2542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551883</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="14830425"/>
+          <a:ext cx="4533333" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1944,7 +5477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C27:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1989,7 +5522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G24:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -2019,7 +5552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
@@ -2084,4 +5617,109 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A17:I116"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B31:B34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>